--- a/Data.xlsx
+++ b/Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>LoginTest</t>
   </si>
@@ -72,27 +72,6 @@
     <t>Microsoft</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Sales Meeting</t>
-  </si>
-  <si>
-    <t>03-06-2020</t>
-  </si>
-  <si>
-    <t>CreateTaskTest</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Simon Morasca</t>
-  </si>
-  <si>
     <t>TCID</t>
   </si>
   <si>
@@ -139,13 +118,76 @@
   </si>
   <si>
     <t>Michal Supek</t>
+  </si>
+  <si>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>kondapur</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>telangana</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>LeaveTest</t>
+  </si>
+  <si>
+    <t>TimeTest</t>
+  </si>
+  <si>
+    <t>Anth</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Atmecs</t>
+  </si>
+  <si>
+    <t>Leading apparel manufacturing chain.</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>ProjectAdmin</t>
+  </si>
+  <si>
+    <t>Odis</t>
+  </si>
+  <si>
+    <t>Atmecs LTD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +203,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF38455D"/>
+      <name val="Nunito Sans"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +225,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,14 +248,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,26 +536,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -523,27 +563,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -554,13 +602,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -568,15 +616,19 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -596,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -604,19 +656,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -636,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -644,24 +696,24 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,10 +727,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -686,16 +738,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -709,15 +761,15 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -731,19 +783,34 @@
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -751,47 +818,65 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H14">
         <v>3232</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14">
+        <v>500084</v>
+      </c>
+      <c r="M14">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -799,13 +884,97 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
   <si>
     <t>LoginTest</t>
   </si>
@@ -181,13 +181,43 @@
   </si>
   <si>
     <t>Atmecs LTD</t>
+  </si>
+  <si>
+    <t>MyInfoTest</t>
+  </si>
+  <si>
+    <t>RequirmentTest</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>silpi</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>sahu</t>
+  </si>
+  <si>
+    <t>silpi98@gmail.com</t>
+  </si>
+  <si>
+    <t>DirectoryTest</t>
+  </si>
+  <si>
+    <t>MaintenanceTest</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +237,12 @@
       <sz val="9"/>
       <color rgb="FF38455D"/>
       <name val="Nunito Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -248,13 +284,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,17 +637,50 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -977,14 +1052,184 @@
         <v>50</v>
       </c>
     </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="se.leniumtraining10@gmail.com"/>
     <hyperlink ref="E3" r:id="rId2" display="Whizdom@2020"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="H30" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="100">
   <si>
     <t>LoginTest</t>
   </si>
@@ -117,9 +117,6 @@
     <t>EmployeeID</t>
   </si>
   <si>
-    <t>Michal Supek</t>
-  </si>
-  <si>
     <t>Street1</t>
   </si>
   <si>
@@ -211,13 +208,130 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>BuzzTest</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Hi everyone</t>
+  </si>
+  <si>
+    <t>Vacancy</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>PerformanceTest</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>MangerName</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Java selenium experienced</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>UpdatePassword</t>
+  </si>
+  <si>
+    <t>Abcd@123</t>
+  </si>
+  <si>
+    <t>UpdateEmployeeName</t>
+  </si>
+  <si>
+    <t>silpi3</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Automation Engg</t>
+  </si>
+  <si>
+    <t>Need Java Expert</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Skilldescription</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Java programming laguage</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Licenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Certified Systems Engineer </t>
+  </si>
+  <si>
+    <t>NationName</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>TestEmailid</t>
+  </si>
+  <si>
+    <t>ranjan@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +357,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.3000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -284,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -295,6 +415,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,7 +746,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -631,7 +754,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -639,33 +762,49 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>52</v>
+      <c r="A8" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -677,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -691,19 +830,21 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
     <col min="11" max="11" width="27.140625" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -723,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -743,7 +884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -763,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -783,12 +924,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -804,8 +945,44 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="F8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -819,10 +996,46 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -839,12 +1052,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -870,22 +1083,22 @@
         <v>29</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -911,13 +1124,13 @@
         <v>3232</v>
       </c>
       <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
         <v>35</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
       </c>
       <c r="L14">
         <v>500084</v>
@@ -926,9 +1139,9 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -945,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>20</v>
@@ -965,15 +1178,15 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -990,28 +1203,28 @@
         <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1028,33 +1241,33 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="L22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1070,7 +1283,15 @@
       <c r="D25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
@@ -1085,10 +1306,19 @@
       <c r="D26" t="s">
         <v>17</v>
       </c>
+      <c r="E26">
+        <v>1234567899</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
+      <c r="A28" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1105,16 +1335,16 @@
         <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1131,24 +1361,24 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -1162,10 +1392,28 @@
         <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1179,15 +1427,33 @@
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
@@ -1201,10 +1467,10 @@
         <v>5</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1484,110 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
         <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1227,9 +1596,12 @@
     <hyperlink ref="E3" r:id="rId2" display="Whizdom@2020"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="H30" r:id="rId5"/>
+    <hyperlink ref="H34" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="H9" r:id="rId7"/>
+    <hyperlink ref="Q9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="107">
   <si>
     <t>LoginTest</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Sahoo</t>
   </si>
   <si>
-    <t>EmployeeTest</t>
-  </si>
-  <si>
     <t>EmployeeID</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>TimeTest</t>
   </si>
   <si>
-    <t>Anth</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -174,12 +168,6 @@
     <t>ProjectAdmin</t>
   </si>
   <si>
-    <t>Odis</t>
-  </si>
-  <si>
-    <t>Atmecs LTD</t>
-  </si>
-  <si>
     <t>MyInfoTest</t>
   </si>
   <si>
@@ -325,6 +313,39 @@
   </si>
   <si>
     <t>ranjan@gmail.com</t>
+  </si>
+  <si>
+    <t>SearchTest</t>
+  </si>
+  <si>
+    <t>Swapna</t>
+  </si>
+  <si>
+    <t>DependentName</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>SampleReportfile</t>
+  </si>
+  <si>
+    <t>PIMTest</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>EntitlementsComment</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -701,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,7 +759,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -746,7 +767,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -754,7 +775,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -762,7 +783,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -770,7 +791,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -778,7 +799,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -786,7 +807,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -794,7 +815,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -802,9 +823,17 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -816,10 +845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -946,40 +975,40 @@
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -996,43 +1025,43 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
         <v>86</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>87</v>
       </c>
-      <c r="L9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="Q9" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="P9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,7 +1083,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1080,22 +1109,34 @@
         <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>33</v>
+      <c r="P13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1124,27 +1165,39 @@
         <v>3232</v>
       </c>
       <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
         <v>34</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>36</v>
       </c>
       <c r="L14">
         <v>500084</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14">
         <v>123456789</v>
+      </c>
+      <c r="P14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1158,13 +1211,16 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="G17" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1178,18 +1234,21 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>106</v>
+      </c>
+      <c r="G18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1203,31 +1262,34 @@
         <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>46</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1241,36 +1303,39 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>103</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1284,16 +1349,16 @@
         <v>5</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1310,18 +1375,18 @@
         <v>1234567899</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -1338,16 +1403,16 @@
         <v>20</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1361,21 +1426,21 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
         <v>65</v>
       </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1401,16 +1466,16 @@
         <v>24</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1427,30 +1492,30 @@
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1484,12 +1549,12 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1509,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>20</v>
@@ -1533,15 +1598,15 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1561,10 +1626,10 @@
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1584,10 +1649,51 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
